--- a/SITA Project/File/FileContoh.xlsx
+++ b/SITA Project/File/FileContoh.xlsx
@@ -2344,9 +2344,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -2834,7 +2834,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2885,7 +2885,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2895,7 +2895,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2943,7 +2943,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2991,31 +2991,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3371,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EK345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DW1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="EK8" sqref="EK8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
